--- a/aggregates/monthly_worktime.xlsx
+++ b/aggregates/monthly_worktime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hirot\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hirot\venv\hana\hana\hana\aggregates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBDC088-AC7B-4EE9-B75E-65770EFC9AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C10B4E-77B6-4E36-8657-F56EAF3C8580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30510" yWindow="4875" windowWidth="27945" windowHeight="16995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="origin" sheetId="63" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>勤務表</t>
     <rPh sb="0" eb="2">
@@ -186,16 +186,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>廣瀬俊一</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロセ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トシカズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1635,6 +1625,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1652,57 +1693,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2021,10 +2011,10 @@
   <dimension ref="A2:AN58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.35"/>
@@ -2486,41 +2476,41 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
       <c r="G2" s="73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="72"/>
       <c r="I2" s="73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="5"/>
       <c r="M2" s="1"/>
-      <c r="S2" s="114" t="s">
+      <c r="S2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="114"/>
-      <c r="AH2" s="114"/>
-      <c r="AI2" s="114"/>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="114"/>
-      <c r="AL2" s="114"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="108"/>
+      <c r="AL2" s="108"/>
     </row>
     <row r="3" spans="1:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="6"/>
@@ -2546,56 +2536,56 @@
     </row>
     <row r="4" spans="1:38" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="8"/>
-      <c r="C4" s="104"/>
+      <c r="C4" s="121"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="107" t="s">
+      <c r="E4" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="107" t="s">
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="108" t="s">
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="107" t="s">
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="108"/>
-      <c r="AE4" s="108"/>
-      <c r="AF4" s="109"/>
-      <c r="AG4" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="113"/>
-      <c r="AJ4" s="121" t="s">
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="125"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="AK4" s="124" t="s">
+      <c r="AK4" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="115" t="s">
+      <c r="AL4" s="109" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2603,7 +2593,7 @@
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="105"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
@@ -2638,13 +2628,13 @@
       <c r="AG5" s="81"/>
       <c r="AH5" s="81"/>
       <c r="AI5" s="12"/>
-      <c r="AJ5" s="122"/>
-      <c r="AK5" s="125"/>
-      <c r="AL5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="119"/>
+      <c r="AL5" s="110"/>
     </row>
     <row r="6" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13"/>
-      <c r="C6" s="106"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="14"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -2677,16 +2667,16 @@
       <c r="AG6" s="82"/>
       <c r="AH6" s="82"/>
       <c r="AI6" s="82"/>
-      <c r="AJ6" s="123"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="117"/>
+      <c r="AJ6" s="117"/>
+      <c r="AK6" s="120"/>
+      <c r="AL6" s="111"/>
     </row>
     <row r="7" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="s">
@@ -2731,7 +2721,7 @@
         <f>ROUNDDOWN(AJ7/4,1)</f>
         <v>0</v>
       </c>
-      <c r="AL7" s="118">
+      <c r="AL7" s="112">
         <f>ROUNDDOWN(AK57/40,1)</f>
         <v>0</v>
       </c>
@@ -2786,7 +2776,7 @@
         <f>ROUNDDOWN(AJ8/4,1)</f>
         <v>0</v>
       </c>
-      <c r="AL8" s="119"/>
+      <c r="AL8" s="113"/>
     </row>
     <row r="9" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
@@ -2838,7 +2828,7 @@
         <f t="shared" ref="AK9:AK55" si="0">ROUNDDOWN(AJ9/4,1)</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="119"/>
+      <c r="AL9" s="113"/>
     </row>
     <row r="10" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -2890,18 +2880,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL10" s="119"/>
+      <c r="AL10" s="113"/>
     </row>
     <row r="11" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>14</v>
+      <c r="B11" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="39"/>
-      <c r="D11" s="42" t="s">
-        <v>18</v>
+      <c r="D11" s="40" t="s">
+        <v>15</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
@@ -2942,19 +2932,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL11" s="119"/>
+      <c r="AL11" s="113"/>
     </row>
     <row r="12" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>17</v>
-      </c>
+      <c r="B12" s="34"/>
       <c r="C12" s="39"/>
-      <c r="D12" s="40" t="s">
-        <v>15</v>
-      </c>
+      <c r="D12" s="40"/>
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -2994,7 +2980,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="119"/>
+      <c r="AL12" s="113"/>
     </row>
     <row r="13" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
@@ -3042,7 +3028,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="119"/>
+      <c r="AL13" s="113"/>
     </row>
     <row r="14" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
@@ -3090,7 +3076,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL14" s="119"/>
+      <c r="AL14" s="113"/>
     </row>
     <row r="15" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -3138,7 +3124,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="119"/>
+      <c r="AL15" s="113"/>
     </row>
     <row r="16" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
@@ -3183,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="AK16" s="26">
-        <f t="shared" ref="AK16:AK32" si="2">ROUNDDOWN(AJ16/4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="119"/>
+        <f t="shared" ref="AK16:AK25" si="2">ROUNDDOWN(AJ16/4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="113"/>
     </row>
     <row r="17" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
@@ -3234,7 +3220,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL17" s="119"/>
+      <c r="AL17" s="113"/>
     </row>
     <row r="18" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
@@ -3282,7 +3268,7 @@
         <f t="shared" ref="AK18" si="4">ROUNDDOWN(AJ18/4,1)</f>
         <v>0</v>
       </c>
-      <c r="AL18" s="119"/>
+      <c r="AL18" s="113"/>
     </row>
     <row r="19" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
@@ -3323,14 +3309,14 @@
       <c r="AH19" s="44"/>
       <c r="AI19" s="78"/>
       <c r="AJ19" s="45">
-        <f t="shared" ref="AJ19:AJ32" si="5">SUM(E19:AF19)</f>
+        <f t="shared" ref="AJ19:AJ26" si="5">SUM(E19:AF19)</f>
         <v>0</v>
       </c>
       <c r="AK19" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL19" s="119"/>
+      <c r="AL19" s="113"/>
     </row>
     <row r="20" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
@@ -3378,9 +3364,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL20" s="119"/>
+      <c r="AL20" s="113"/>
       <c r="AN20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -3429,7 +3415,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="119"/>
+      <c r="AL21" s="113"/>
     </row>
     <row r="22" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
@@ -3477,7 +3463,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL22" s="119"/>
+      <c r="AL22" s="113"/>
     </row>
     <row r="23" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
@@ -3525,7 +3511,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="119"/>
+      <c r="AL23" s="113"/>
     </row>
     <row r="24" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
@@ -3573,7 +3559,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL24" s="119"/>
+      <c r="AL24" s="113"/>
     </row>
     <row r="25" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
@@ -3621,7 +3607,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL25" s="119"/>
+      <c r="AL25" s="113"/>
     </row>
     <row r="26" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
@@ -3669,7 +3655,7 @@
         <f>ROUNDDOWN(AJ26/4,1)</f>
         <v>0</v>
       </c>
-      <c r="AL26" s="119"/>
+      <c r="AL26" s="113"/>
     </row>
     <row r="27" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
@@ -3717,7 +3703,7 @@
         <f>ROUNDDOWN(AJ27/4,1)</f>
         <v>0</v>
       </c>
-      <c r="AL27" s="119"/>
+      <c r="AL27" s="113"/>
     </row>
     <row r="28" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
@@ -3765,7 +3751,7 @@
         <f t="shared" ref="AK28:AK32" si="7">ROUNDDOWN(AJ28/4,1)</f>
         <v>0</v>
       </c>
-      <c r="AL28" s="119"/>
+      <c r="AL28" s="113"/>
     </row>
     <row r="29" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
@@ -3813,7 +3799,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="119"/>
+      <c r="AL29" s="113"/>
     </row>
     <row r="30" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
@@ -3861,7 +3847,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="119"/>
+      <c r="AL30" s="113"/>
     </row>
     <row r="31" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
@@ -3909,7 +3895,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL31" s="119"/>
+      <c r="AL31" s="113"/>
     </row>
     <row r="32" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
@@ -3957,7 +3943,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL32" s="119"/>
+      <c r="AL32" s="113"/>
     </row>
     <row r="33" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
@@ -4005,7 +3991,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL33" s="119"/>
+      <c r="AL33" s="113"/>
     </row>
     <row r="34" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
@@ -4053,7 +4039,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL34" s="119"/>
+      <c r="AL34" s="113"/>
     </row>
     <row r="35" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
@@ -4101,7 +4087,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL35" s="119"/>
+      <c r="AL35" s="113"/>
     </row>
     <row r="36" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
@@ -4149,9 +4135,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL36" s="119"/>
+      <c r="AL36" s="113"/>
       <c r="AN36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -4200,7 +4186,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="119"/>
+      <c r="AL37" s="113"/>
     </row>
     <row r="38" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
@@ -4248,7 +4234,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL38" s="119"/>
+      <c r="AL38" s="113"/>
     </row>
     <row r="39" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
@@ -4296,7 +4282,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL39" s="119"/>
+      <c r="AL39" s="113"/>
     </row>
     <row r="40" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
@@ -4344,7 +4330,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="119"/>
+      <c r="AL40" s="113"/>
     </row>
     <row r="41" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
@@ -4392,7 +4378,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL41" s="119"/>
+      <c r="AL41" s="113"/>
     </row>
     <row r="42" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
@@ -4440,7 +4426,7 @@
         <f>ROUNDDOWN(AJ42/4,1)</f>
         <v>0</v>
       </c>
-      <c r="AL42" s="119"/>
+      <c r="AL42" s="113"/>
     </row>
     <row r="43" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
@@ -4488,7 +4474,7 @@
         <f>ROUNDDOWN(AJ43/4,1)</f>
         <v>0</v>
       </c>
-      <c r="AL43" s="119"/>
+      <c r="AL43" s="113"/>
     </row>
     <row r="44" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
@@ -4536,7 +4522,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL44" s="119"/>
+      <c r="AL44" s="113"/>
     </row>
     <row r="45" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
@@ -4584,7 +4570,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL45" s="119"/>
+      <c r="AL45" s="113"/>
     </row>
     <row r="46" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
@@ -4632,7 +4618,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL46" s="119"/>
+      <c r="AL46" s="113"/>
     </row>
     <row r="47" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
@@ -4680,7 +4666,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL47" s="119"/>
+      <c r="AL47" s="113"/>
     </row>
     <row r="48" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
@@ -4728,7 +4714,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL48" s="119"/>
+      <c r="AL48" s="113"/>
     </row>
     <row r="49" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
@@ -4776,7 +4762,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL49" s="119"/>
+      <c r="AL49" s="113"/>
     </row>
     <row r="50" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
@@ -4824,7 +4810,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL50" s="119"/>
+      <c r="AL50" s="113"/>
     </row>
     <row r="51" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
@@ -4872,7 +4858,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL51" s="119"/>
+      <c r="AL51" s="113"/>
     </row>
     <row r="52" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
@@ -4920,7 +4906,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL52" s="119"/>
+      <c r="AL52" s="113"/>
     </row>
     <row r="53" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
@@ -4968,7 +4954,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL53" s="119"/>
+      <c r="AL53" s="113"/>
     </row>
     <row r="54" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
@@ -5016,7 +5002,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL54" s="119"/>
+      <c r="AL54" s="113"/>
     </row>
     <row r="55" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
@@ -5064,7 +5050,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL55" s="119"/>
+      <c r="AL55" s="113"/>
     </row>
     <row r="56" spans="1:40" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
@@ -5112,7 +5098,7 @@
         <f>ROUNDDOWN(AJ56/4,1)</f>
         <v>0</v>
       </c>
-      <c r="AL56" s="120"/>
+      <c r="AL56" s="114"/>
     </row>
     <row r="57" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="61"/>
@@ -5161,6 +5147,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="AG4:AI4"/>
     <mergeCell ref="S2:AL2"/>
@@ -5168,11 +5159,6 @@
     <mergeCell ref="AL7:AL56"/>
     <mergeCell ref="AJ4:AJ6"/>
     <mergeCell ref="AK4:AK6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
